--- a/tests/advanced/randomized_tests/b17.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b17.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>81</v>
       </c>
       <c r="D2">
-        <v>0.0001409770920872688</v>
+        <v>0.000249768141657114</v>
       </c>
       <c r="E2">
-        <v>0.04445855878293514</v>
+        <v>0.0853085177950561</v>
       </c>
       <c r="F2">
         <v>81</v>
       </c>
       <c r="G2">
-        <v>0.002977213822305202</v>
+        <v>0.00559477461501956</v>
       </c>
       <c r="H2">
-        <v>0.005318079609423876</v>
+        <v>0.01019760640338063</v>
       </c>
       <c r="I2">
-        <v>0.01565576624125242</v>
+        <v>0.02937948796898127</v>
       </c>
       <c r="J2">
-        <v>0.01671760249882936</v>
+        <v>0.03353428887203336</v>
       </c>
       <c r="K2">
-        <v>0.00106715876609087</v>
+        <v>0.001744922716170549</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>81</v>
       </c>
       <c r="D3">
-        <v>0.005865734536200762</v>
+        <v>0.003811206202954054</v>
       </c>
       <c r="E3">
-        <v>0.09119082242250443</v>
+        <v>0.06394722079858184</v>
       </c>
       <c r="F3">
         <v>81</v>
       </c>
       <c r="G3">
-        <v>0.00489037437364459</v>
+        <v>0.00335369911044836</v>
       </c>
       <c r="H3">
-        <v>0.01396171515807509</v>
+        <v>0.01064082141965628</v>
       </c>
       <c r="I3">
-        <v>0.02852407423779368</v>
+        <v>0.01833307696506381</v>
       </c>
       <c r="J3">
-        <v>0.03756909677758813</v>
+        <v>0.0274820146150887</v>
       </c>
       <c r="K3">
-        <v>0.001624328084290028</v>
+        <v>0.001115125138312578</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>81</v>
       </c>
       <c r="D4">
-        <v>0.006049744319170713</v>
+        <v>0.003984733484685421</v>
       </c>
       <c r="E4">
-        <v>0.09116119425743818</v>
+        <v>0.06672869389876723</v>
       </c>
       <c r="F4">
         <v>81</v>
       </c>
       <c r="G4">
-        <v>0.00483626127243042</v>
+        <v>0.0034317746758461</v>
       </c>
       <c r="H4">
-        <v>0.01404161192476749</v>
+        <v>0.01091049751266837</v>
       </c>
       <c r="I4">
-        <v>0.02850454952567816</v>
+        <v>0.01965167745947838</v>
       </c>
       <c r="J4">
-        <v>0.03757873410359025</v>
+        <v>0.02837291173636913</v>
       </c>
       <c r="K4">
-        <v>0.001591687556356192</v>
+        <v>0.001082807779312134</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>81</v>
       </c>
       <c r="D5">
-        <v>0.0003265766426920891</v>
+        <v>0.0003545717336237431</v>
       </c>
       <c r="E5">
-        <v>0.05041758995503187</v>
+        <v>0.08475102204829454</v>
       </c>
       <c r="F5">
         <v>81</v>
       </c>
       <c r="G5">
-        <v>0.003182470798492432</v>
+        <v>0.005137935746461153</v>
       </c>
       <c r="H5">
-        <v>0.006207992322742939</v>
+        <v>0.009851789567619562</v>
       </c>
       <c r="I5">
-        <v>0.02017714455723763</v>
+        <v>0.02968937717378139</v>
       </c>
       <c r="J5">
-        <v>0.01638198550790548</v>
+        <v>0.0335434777662158</v>
       </c>
       <c r="K5">
-        <v>0.001410068478435278</v>
+        <v>0.001752892509102821</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>252</v>
       </c>
       <c r="D6">
-        <v>0.005671072285622358</v>
+        <v>0.005934383720159531</v>
       </c>
       <c r="E6">
-        <v>0.256567345932126</v>
+        <v>0.4651480712927878</v>
       </c>
       <c r="F6">
         <v>252</v>
       </c>
       <c r="G6">
-        <v>0.00898311659693718</v>
+        <v>0.01034766295924783</v>
       </c>
       <c r="H6">
-        <v>0.02280251868069172</v>
+        <v>0.02766285091638565</v>
       </c>
       <c r="I6">
-        <v>0.1572532351128757</v>
+        <v>0.363250554073602</v>
       </c>
       <c r="J6">
-        <v>0.05441232025623322</v>
+        <v>0.05025405017659068</v>
       </c>
       <c r="K6">
-        <v>0.003972033970057964</v>
+        <v>0.00386454164981842</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>81</v>
       </c>
       <c r="D8">
-        <v>0.0001409770920872688</v>
+        <v>0.000249768141657114</v>
       </c>
       <c r="E8">
-        <v>0.04445855878293514</v>
+        <v>0.0853085177950561</v>
       </c>
       <c r="F8">
         <v>81</v>
       </c>
       <c r="G8">
-        <v>0.002977213822305202</v>
+        <v>0.00559477461501956</v>
       </c>
       <c r="H8">
-        <v>0.005318079609423876</v>
+        <v>0.01019760640338063</v>
       </c>
       <c r="I8">
-        <v>0.01565576624125242</v>
+        <v>0.02937948796898127</v>
       </c>
       <c r="J8">
-        <v>0.01671760249882936</v>
+        <v>0.03353428887203336</v>
       </c>
       <c r="K8">
-        <v>0.00106715876609087</v>
+        <v>0.001744922716170549</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>81</v>
       </c>
       <c r="D9">
-        <v>0.005865734536200762</v>
+        <v>0.003811206202954054</v>
       </c>
       <c r="E9">
-        <v>0.09119082242250443</v>
+        <v>0.06394722079858184</v>
       </c>
       <c r="F9">
         <v>81</v>
       </c>
       <c r="G9">
-        <v>0.00489037437364459</v>
+        <v>0.00335369911044836</v>
       </c>
       <c r="H9">
-        <v>0.01396171515807509</v>
+        <v>0.01064082141965628</v>
       </c>
       <c r="I9">
-        <v>0.02852407423779368</v>
+        <v>0.01833307696506381</v>
       </c>
       <c r="J9">
-        <v>0.03756909677758813</v>
+        <v>0.0274820146150887</v>
       </c>
       <c r="K9">
-        <v>0.001624328084290028</v>
+        <v>0.001115125138312578</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>81</v>
       </c>
       <c r="D10">
-        <v>0.006049744319170713</v>
+        <v>0.003984733484685421</v>
       </c>
       <c r="E10">
-        <v>0.09116119425743818</v>
+        <v>0.06672869389876723</v>
       </c>
       <c r="F10">
         <v>81</v>
       </c>
       <c r="G10">
-        <v>0.00483626127243042</v>
+        <v>0.0034317746758461</v>
       </c>
       <c r="H10">
-        <v>0.01404161192476749</v>
+        <v>0.01091049751266837</v>
       </c>
       <c r="I10">
-        <v>0.02850454952567816</v>
+        <v>0.01965167745947838</v>
       </c>
       <c r="J10">
-        <v>0.03757873410359025</v>
+        <v>0.02837291173636913</v>
       </c>
       <c r="K10">
-        <v>0.001591687556356192</v>
+        <v>0.001082807779312134</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>81</v>
       </c>
       <c r="D11">
-        <v>0.0003265766426920891</v>
+        <v>0.0003545717336237431</v>
       </c>
       <c r="E11">
-        <v>0.05041758995503187</v>
+        <v>0.08475102204829454</v>
       </c>
       <c r="F11">
         <v>81</v>
       </c>
       <c r="G11">
-        <v>0.003182470798492432</v>
+        <v>0.005137935746461153</v>
       </c>
       <c r="H11">
-        <v>0.006207992322742939</v>
+        <v>0.009851789567619562</v>
       </c>
       <c r="I11">
-        <v>0.02017714455723763</v>
+        <v>0.02968937717378139</v>
       </c>
       <c r="J11">
-        <v>0.01638198550790548</v>
+        <v>0.0335434777662158</v>
       </c>
       <c r="K11">
-        <v>0.001410068478435278</v>
+        <v>0.001752892509102821</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>252</v>
       </c>
       <c r="D12">
-        <v>0.005671072285622358</v>
+        <v>0.005934383720159531</v>
       </c>
       <c r="E12">
-        <v>0.256567345932126</v>
+        <v>0.4651480712927878</v>
       </c>
       <c r="F12">
         <v>252</v>
       </c>
       <c r="G12">
-        <v>0.00898311659693718</v>
+        <v>0.01034766295924783</v>
       </c>
       <c r="H12">
-        <v>0.02280251868069172</v>
+        <v>0.02766285091638565</v>
       </c>
       <c r="I12">
-        <v>0.1572532351128757</v>
+        <v>0.363250554073602</v>
       </c>
       <c r="J12">
-        <v>0.05441232025623322</v>
+        <v>0.05025405017659068</v>
       </c>
       <c r="K12">
-        <v>0.003972033970057964</v>
+        <v>0.00386454164981842</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b17.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b17.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>145</v>
       </c>
       <c r="D2">
-        <v>145</v>
-      </c>
-      <c r="E2">
-        <v>145</v>
-      </c>
-      <c r="F2">
-        <v>145</v>
-      </c>
-      <c r="G2">
-        <v>145</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>0.000249768141657114</v>
+        <v>0.009814948309212923</v>
       </c>
       <c r="E2">
-        <v>0.0853085177950561</v>
+        <v>0.1104980609379709</v>
       </c>
       <c r="F2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="G2">
-        <v>0.00559477461501956</v>
+        <v>0.007901766337454319</v>
       </c>
       <c r="H2">
-        <v>0.01019760640338063</v>
+        <v>0.02306319028139114</v>
       </c>
       <c r="I2">
-        <v>0.02937948796898127</v>
+        <v>0.04082854744046926</v>
       </c>
       <c r="J2">
-        <v>0.03353428887203336</v>
+        <v>0.02738797198981047</v>
       </c>
       <c r="K2">
-        <v>0.001744922716170549</v>
+        <v>0.00461863586679101</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>81</v>
-      </c>
-      <c r="D3">
-        <v>0.003811206202954054</v>
+        <v>2500</v>
       </c>
       <c r="E3">
-        <v>0.06394722079858184</v>
-      </c>
-      <c r="F3">
-        <v>81</v>
-      </c>
-      <c r="G3">
-        <v>0.00335369911044836</v>
-      </c>
-      <c r="H3">
-        <v>0.01064082141965628</v>
-      </c>
-      <c r="I3">
-        <v>0.01833307696506381</v>
-      </c>
-      <c r="J3">
-        <v>0.0274820146150887</v>
-      </c>
-      <c r="K3">
-        <v>0.001115125138312578</v>
+        <v>0.02305092057213187</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="D4">
-        <v>0.003984733484685421</v>
+        <v>0.009814948309212923</v>
       </c>
       <c r="E4">
-        <v>0.06672869389876723</v>
+        <v>0.1104980609379709</v>
       </c>
       <c r="F4">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="G4">
-        <v>0.0034317746758461</v>
+        <v>0.007901766337454319</v>
       </c>
       <c r="H4">
-        <v>0.01091049751266837</v>
+        <v>0.02306319028139114</v>
       </c>
       <c r="I4">
-        <v>0.01965167745947838</v>
+        <v>0.04082854744046926</v>
       </c>
       <c r="J4">
-        <v>0.02837291173636913</v>
+        <v>0.02738797198981047</v>
       </c>
       <c r="K4">
-        <v>0.001082807779312134</v>
+        <v>0.00461863586679101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>81</v>
-      </c>
-      <c r="D5">
-        <v>0.0003545717336237431</v>
+        <v>2500</v>
       </c>
       <c r="E5">
-        <v>0.08475102204829454</v>
-      </c>
-      <c r="F5">
-        <v>81</v>
-      </c>
-      <c r="G5">
-        <v>0.005137935746461153</v>
-      </c>
-      <c r="H5">
-        <v>0.009851789567619562</v>
-      </c>
-      <c r="I5">
-        <v>0.02968937717378139</v>
-      </c>
-      <c r="J5">
-        <v>0.0335434777662158</v>
-      </c>
-      <c r="K5">
-        <v>0.001752892509102821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>252</v>
-      </c>
-      <c r="D6">
-        <v>0.005934383720159531</v>
-      </c>
-      <c r="E6">
-        <v>0.4651480712927878</v>
-      </c>
-      <c r="F6">
-        <v>252</v>
-      </c>
-      <c r="G6">
-        <v>0.01034766295924783</v>
-      </c>
-      <c r="H6">
-        <v>0.02766285091638565</v>
-      </c>
-      <c r="I6">
-        <v>0.363250554073602</v>
-      </c>
-      <c r="J6">
-        <v>0.05025405017659068</v>
-      </c>
-      <c r="K6">
-        <v>0.00386454164981842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>2500</v>
-      </c>
-      <c r="E7">
-        <v>0.02305092057213187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>81</v>
-      </c>
-      <c r="D8">
-        <v>0.000249768141657114</v>
-      </c>
-      <c r="E8">
-        <v>0.0853085177950561</v>
-      </c>
-      <c r="F8">
-        <v>81</v>
-      </c>
-      <c r="G8">
-        <v>0.00559477461501956</v>
-      </c>
-      <c r="H8">
-        <v>0.01019760640338063</v>
-      </c>
-      <c r="I8">
-        <v>0.02937948796898127</v>
-      </c>
-      <c r="J8">
-        <v>0.03353428887203336</v>
-      </c>
-      <c r="K8">
-        <v>0.001744922716170549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>81</v>
-      </c>
-      <c r="D9">
-        <v>0.003811206202954054</v>
-      </c>
-      <c r="E9">
-        <v>0.06394722079858184</v>
-      </c>
-      <c r="F9">
-        <v>81</v>
-      </c>
-      <c r="G9">
-        <v>0.00335369911044836</v>
-      </c>
-      <c r="H9">
-        <v>0.01064082141965628</v>
-      </c>
-      <c r="I9">
-        <v>0.01833307696506381</v>
-      </c>
-      <c r="J9">
-        <v>0.0274820146150887</v>
-      </c>
-      <c r="K9">
-        <v>0.001115125138312578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>81</v>
-      </c>
-      <c r="D10">
-        <v>0.003984733484685421</v>
-      </c>
-      <c r="E10">
-        <v>0.06672869389876723</v>
-      </c>
-      <c r="F10">
-        <v>81</v>
-      </c>
-      <c r="G10">
-        <v>0.0034317746758461</v>
-      </c>
-      <c r="H10">
-        <v>0.01091049751266837</v>
-      </c>
-      <c r="I10">
-        <v>0.01965167745947838</v>
-      </c>
-      <c r="J10">
-        <v>0.02837291173636913</v>
-      </c>
-      <c r="K10">
-        <v>0.001082807779312134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>0.0003545717336237431</v>
-      </c>
-      <c r="E11">
-        <v>0.08475102204829454</v>
-      </c>
-      <c r="F11">
-        <v>81</v>
-      </c>
-      <c r="G11">
-        <v>0.005137935746461153</v>
-      </c>
-      <c r="H11">
-        <v>0.009851789567619562</v>
-      </c>
-      <c r="I11">
-        <v>0.02968937717378139</v>
-      </c>
-      <c r="J11">
-        <v>0.0335434777662158</v>
-      </c>
-      <c r="K11">
-        <v>0.001752892509102821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>252</v>
-      </c>
-      <c r="D12">
-        <v>0.005934383720159531</v>
-      </c>
-      <c r="E12">
-        <v>0.4651480712927878</v>
-      </c>
-      <c r="F12">
-        <v>252</v>
-      </c>
-      <c r="G12">
-        <v>0.01034766295924783</v>
-      </c>
-      <c r="H12">
-        <v>0.02766285091638565</v>
-      </c>
-      <c r="I12">
-        <v>0.363250554073602</v>
-      </c>
-      <c r="J12">
-        <v>0.05025405017659068</v>
-      </c>
-      <c r="K12">
-        <v>0.00386454164981842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>2500</v>
-      </c>
-      <c r="E13">
         <v>0.02305092057213187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b17.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b17.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>145</v>
       </c>
       <c r="D2">
+        <v>145</v>
+      </c>
+      <c r="E2">
+        <v>145</v>
+      </c>
+      <c r="F2">
+        <v>145</v>
+      </c>
+      <c r="G2">
+        <v>145</v>
+      </c>
+      <c r="H2">
+        <v>145</v>
+      </c>
+      <c r="I2">
+        <v>145</v>
+      </c>
+      <c r="J2">
+        <v>145</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>0.009814948309212923</v>
+        <v>0.0005183946341276169</v>
       </c>
       <c r="E2">
-        <v>0.1104980609379709</v>
+        <v>0.06285529024899006</v>
       </c>
       <c r="F2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="G2">
-        <v>0.007901766337454319</v>
+        <v>0.006278459914028645</v>
       </c>
       <c r="H2">
-        <v>0.02306319028139114</v>
+        <v>0.008880725130438805</v>
       </c>
       <c r="I2">
-        <v>0.04082854744046926</v>
+        <v>0.01825501816347241</v>
       </c>
       <c r="J2">
-        <v>0.02738797198981047</v>
+        <v>0.02115044882521033</v>
       </c>
       <c r="K2">
-        <v>0.00461863586679101</v>
+        <v>0.003361405804753304</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2500</v>
+        <v>161</v>
+      </c>
+      <c r="D3">
+        <v>0.00943713029846549</v>
       </c>
       <c r="E3">
-        <v>0.02305092057213187</v>
+        <v>0.09979088697582483</v>
+      </c>
+      <c r="F3">
+        <v>161</v>
+      </c>
+      <c r="G3">
+        <v>0.007451578974723816</v>
+      </c>
+      <c r="H3">
+        <v>0.02166302455589175</v>
+      </c>
+      <c r="I3">
+        <v>0.0370128913782537</v>
+      </c>
+      <c r="J3">
+        <v>0.02303817728534341</v>
+      </c>
+      <c r="K3">
+        <v>0.004248209297657013</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>0.009814948309212923</v>
+        <v>0.006063749082386494</v>
       </c>
       <c r="E4">
-        <v>0.1104980609379709</v>
+        <v>0.08604052290320396</v>
       </c>
       <c r="F4">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="G4">
-        <v>0.007901766337454319</v>
+        <v>0.006482208613306284</v>
       </c>
       <c r="H4">
-        <v>0.02306319028139114</v>
+        <v>0.0152814444154501</v>
       </c>
       <c r="I4">
-        <v>0.04082854744046926</v>
+        <v>0.02039068285375834</v>
       </c>
       <c r="J4">
-        <v>0.02738797198981047</v>
+        <v>0.03488815575838089</v>
       </c>
       <c r="K4">
-        <v>0.00461863586679101</v>
+        <v>0.003574741538614035</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>0.0002692542038857937</v>
+      </c>
+      <c r="E5">
+        <v>0.04512992780655622</v>
+      </c>
+      <c r="F5">
+        <v>81</v>
+      </c>
+      <c r="G5">
+        <v>0.004459298215806484</v>
+      </c>
+      <c r="H5">
+        <v>0.006674695294350386</v>
+      </c>
+      <c r="I5">
+        <v>0.01418731827288866</v>
+      </c>
+      <c r="J5">
+        <v>0.01452977163717151</v>
+      </c>
+      <c r="K5">
+        <v>0.002124230843037367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>252</v>
+      </c>
+      <c r="D6">
+        <v>0.001429869793355465</v>
+      </c>
+      <c r="E6">
+        <v>0.254406375810504</v>
+      </c>
+      <c r="F6">
+        <v>252</v>
+      </c>
+      <c r="G6">
+        <v>0.01201561791822314</v>
+      </c>
+      <c r="H6">
+        <v>0.02116962615400553</v>
+      </c>
+      <c r="I6">
+        <v>0.180328250862658</v>
+      </c>
+      <c r="J6">
+        <v>0.02382644405588508</v>
+      </c>
+      <c r="K6">
+        <v>0.00734561076387763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1135</v>
+      </c>
+      <c r="D7">
+        <v>0.03337607579305768</v>
+      </c>
+      <c r="E7">
+        <v>1.259903138969094</v>
+      </c>
+      <c r="F7">
+        <v>1135</v>
+      </c>
+      <c r="G7">
+        <v>0.05279130069538951</v>
+      </c>
+      <c r="H7">
+        <v>0.1216900926083326</v>
+      </c>
+      <c r="I7">
+        <v>0.8910864442586899</v>
+      </c>
+      <c r="J7">
+        <v>0.1164346942678094</v>
+      </c>
+      <c r="K7">
+        <v>0.03231908846646547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>252</v>
+      </c>
+      <c r="D8">
+        <v>0.01239310391247272</v>
+      </c>
+      <c r="E8">
+        <v>0.3833700441755354</v>
+      </c>
+      <c r="F8">
+        <v>252</v>
+      </c>
+      <c r="G8">
+        <v>0.01622430561110377</v>
+      </c>
+      <c r="H8">
+        <v>0.04113118723034859</v>
+      </c>
+      <c r="I8">
+        <v>0.2353997225873172</v>
+      </c>
+      <c r="J8">
+        <v>0.06648736028000712</v>
+      </c>
+      <c r="K8">
+        <v>0.01036370499059558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>252</v>
+      </c>
+      <c r="D9">
+        <v>0.001831193454563618</v>
+      </c>
+      <c r="E9">
+        <v>0.26230872515589</v>
+      </c>
+      <c r="F9">
+        <v>252</v>
+      </c>
+      <c r="G9">
+        <v>0.01231425534933805</v>
+      </c>
+      <c r="H9">
+        <v>0.02363953785970807</v>
+      </c>
+      <c r="I9">
+        <v>0.1878008209168911</v>
+      </c>
+      <c r="J9">
+        <v>0.02068304363638163</v>
+      </c>
+      <c r="K9">
+        <v>0.007740625645965338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>2500</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.02305092057213187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>0.0005183946341276169</v>
+      </c>
+      <c r="E11">
+        <v>0.06285529024899006</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
+        <v>0.006278459914028645</v>
+      </c>
+      <c r="H11">
+        <v>0.008880725130438805</v>
+      </c>
+      <c r="I11">
+        <v>0.01825501816347241</v>
+      </c>
+      <c r="J11">
+        <v>0.02115044882521033</v>
+      </c>
+      <c r="K11">
+        <v>0.003361405804753304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>161</v>
+      </c>
+      <c r="D12">
+        <v>0.00943713029846549</v>
+      </c>
+      <c r="E12">
+        <v>0.09979088697582483</v>
+      </c>
+      <c r="F12">
+        <v>161</v>
+      </c>
+      <c r="G12">
+        <v>0.007451578974723816</v>
+      </c>
+      <c r="H12">
+        <v>0.02166302455589175</v>
+      </c>
+      <c r="I12">
+        <v>0.0370128913782537</v>
+      </c>
+      <c r="J12">
+        <v>0.02303817728534341</v>
+      </c>
+      <c r="K12">
+        <v>0.004248209297657013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>0.006063749082386494</v>
+      </c>
+      <c r="E13">
+        <v>0.08604052290320396</v>
+      </c>
+      <c r="F13">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>0.006482208613306284</v>
+      </c>
+      <c r="H13">
+        <v>0.0152814444154501</v>
+      </c>
+      <c r="I13">
+        <v>0.02039068285375834</v>
+      </c>
+      <c r="J13">
+        <v>0.03488815575838089</v>
+      </c>
+      <c r="K13">
+        <v>0.003574741538614035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>0.0002692542038857937</v>
+      </c>
+      <c r="E14">
+        <v>0.04512992780655622</v>
+      </c>
+      <c r="F14">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>0.004459298215806484</v>
+      </c>
+      <c r="H14">
+        <v>0.006674695294350386</v>
+      </c>
+      <c r="I14">
+        <v>0.01418731827288866</v>
+      </c>
+      <c r="J14">
+        <v>0.01452977163717151</v>
+      </c>
+      <c r="K14">
+        <v>0.002124230843037367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>252</v>
+      </c>
+      <c r="D15">
+        <v>0.001429869793355465</v>
+      </c>
+      <c r="E15">
+        <v>0.254406375810504</v>
+      </c>
+      <c r="F15">
+        <v>252</v>
+      </c>
+      <c r="G15">
+        <v>0.01201561791822314</v>
+      </c>
+      <c r="H15">
+        <v>0.02116962615400553</v>
+      </c>
+      <c r="I15">
+        <v>0.180328250862658</v>
+      </c>
+      <c r="J15">
+        <v>0.02382644405588508</v>
+      </c>
+      <c r="K15">
+        <v>0.00734561076387763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1135</v>
+      </c>
+      <c r="D16">
+        <v>0.03337607579305768</v>
+      </c>
+      <c r="E16">
+        <v>1.259903138969094</v>
+      </c>
+      <c r="F16">
+        <v>1135</v>
+      </c>
+      <c r="G16">
+        <v>0.05279130069538951</v>
+      </c>
+      <c r="H16">
+        <v>0.1216900926083326</v>
+      </c>
+      <c r="I16">
+        <v>0.8910864442586899</v>
+      </c>
+      <c r="J16">
+        <v>0.1164346942678094</v>
+      </c>
+      <c r="K16">
+        <v>0.03231908846646547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>252</v>
+      </c>
+      <c r="D17">
+        <v>0.01239310391247272</v>
+      </c>
+      <c r="E17">
+        <v>0.3833700441755354</v>
+      </c>
+      <c r="F17">
+        <v>252</v>
+      </c>
+      <c r="G17">
+        <v>0.01622430561110377</v>
+      </c>
+      <c r="H17">
+        <v>0.04113118723034859</v>
+      </c>
+      <c r="I17">
+        <v>0.2353997225873172</v>
+      </c>
+      <c r="J17">
+        <v>0.06648736028000712</v>
+      </c>
+      <c r="K17">
+        <v>0.01036370499059558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>252</v>
+      </c>
+      <c r="D18">
+        <v>0.001831193454563618</v>
+      </c>
+      <c r="E18">
+        <v>0.26230872515589</v>
+      </c>
+      <c r="F18">
+        <v>252</v>
+      </c>
+      <c r="G18">
+        <v>0.01231425534933805</v>
+      </c>
+      <c r="H18">
+        <v>0.02363953785970807</v>
+      </c>
+      <c r="I18">
+        <v>0.1878008209168911</v>
+      </c>
+      <c r="J18">
+        <v>0.02068304363638163</v>
+      </c>
+      <c r="K18">
+        <v>0.007740625645965338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>2500</v>
+      </c>
+      <c r="E19">
         <v>0.02305092057213187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
